--- a/MEZ_24.067_28/Распиновка.xlsx
+++ b/MEZ_24.067_28/Распиновка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Рабочий стол\Альтиум\MEZ_24.067_28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE21F784-0F56-4F8C-8F0B-6EDE3A7CE4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C6E9AB-DFB2-4F8E-9AA7-E34C1A5BBE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Пин</t>
   </si>
@@ -37,16 +37,124 @@
   </si>
   <si>
     <t>Катод</t>
+  </si>
+  <si>
+    <t>Управляющий сигнал с МП</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>А1</t>
+  </si>
+  <si>
+    <t>А2</t>
+  </si>
+  <si>
+    <t>А3</t>
+  </si>
+  <si>
+    <t>А4</t>
+  </si>
+  <si>
+    <t>А5</t>
+  </si>
+  <si>
+    <t>А6</t>
+  </si>
+  <si>
+    <t>А7</t>
+  </si>
+  <si>
+    <t>А8</t>
+  </si>
+  <si>
+    <t>К1</t>
+  </si>
+  <si>
+    <t>К2</t>
+  </si>
+  <si>
+    <t>К3</t>
+  </si>
+  <si>
+    <t>К4</t>
+  </si>
+  <si>
+    <t>К5</t>
+  </si>
+  <si>
+    <t>К6</t>
+  </si>
+  <si>
+    <t>К7</t>
+  </si>
+  <si>
+    <t>К8</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>nMO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +195,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -116,15 +227,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>161241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>120040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -147,8 +258,8 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2148840" y="161241"/>
+        <a:xfrm rot="-60000">
+          <a:off x="3672840" y="161241"/>
           <a:ext cx="4594860" cy="4530799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -424,131 +535,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C18"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C18"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
